--- a/TP1/Punto 2/Mediciones.xlsx
+++ b/TP1/Punto 2/Mediciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\source\repos\TC\TP1\Punto 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B188D2-8A45-4168-B8C6-DC9B82F3BB73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACDE4C0-8E8E-4B6D-AE98-31D3A1FD01D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{555DA7CC-7A38-4795-B3ED-2A85C07D66EC}"/>
   </bookViews>
@@ -43,10 +43,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.00000000000"/>
-    <numFmt numFmtId="181" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -119,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -132,13 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -146,20 +141,32 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -345,6 +352,9 @@
                 <c:pt idx="23">
                   <c:v>480000</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>4800000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -352,7 +362,7 @@
             <c:numRef>
               <c:f>'Ejercicio 2'!$B$2:$B$32</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="1">
                   <c:v>-0.1</c:v>
@@ -386,6 +396,48 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-12.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-13.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-14.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-15.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-16.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-17.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-17.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-18.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-18.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-19.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -536,6 +588,9 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>480000</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>4800000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1303,16 +1358,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1640,7 +1695,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,10 +1708,10 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="10"/>
       <c r="D1">
         <f>(480-4.8)*1000/20</f>
         <v>23760</v>
@@ -1665,12 +1720,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="10"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="11">
         <v>1000</v>
       </c>
       <c r="B3" s="14">
@@ -1680,7 +1735,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="11">
         <v>2000</v>
       </c>
       <c r="B4" s="14">
@@ -1690,27 +1745,27 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="11">
         <f>4.8*1000</f>
         <v>4800</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="15">
         <v>-0.1</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="11">
         <f>A5+$D$1</f>
         <v>28560</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="15">
         <v>-1.8</v>
       </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="11">
         <v>48000</v>
       </c>
       <c r="B7" s="14">
@@ -1719,261 +1774,291 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="11">
         <f>A6+$D$1</f>
         <v>52320</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="15">
         <v>-4.5</v>
       </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <f>A8+$D$1</f>
+      <c r="A9" s="11">
+        <f t="shared" ref="A9:A26" si="0">A8+$D$1</f>
         <v>76080</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="15">
         <v>-6.4</v>
       </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <f>A9+$D$1</f>
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
         <v>99840</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="15">
         <v>-8.1999999999999993</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <f>A10+$D$1</f>
+      <c r="A11" s="11">
+        <f t="shared" si="0"/>
         <v>123600</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="15">
         <v>-9.6</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <f>A11+$D$1</f>
+      <c r="A12" s="11">
+        <f t="shared" si="0"/>
         <v>147360</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="15">
         <v>-10.9</v>
       </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <f>A12+$D$1</f>
+      <c r="A13" s="11">
+        <f t="shared" si="0"/>
         <v>171120</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="15">
         <v>-12</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <f>A13+$D$1</f>
+      <c r="A14" s="11">
+        <f t="shared" si="0"/>
         <v>194880</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="15">
+        <v>-12.9</v>
+      </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <f>A14+$D$1</f>
+      <c r="A15" s="11">
+        <f t="shared" si="0"/>
         <v>218640</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="15">
+        <v>-13.8</v>
+      </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <f>A15+$D$1</f>
+      <c r="A16" s="11">
+        <f t="shared" si="0"/>
         <v>242400</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="15">
+        <v>-14.6</v>
+      </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <f>A16+$D$1</f>
+      <c r="A17" s="11">
+        <f t="shared" si="0"/>
         <v>266160</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="15">
+        <v>-15.4</v>
+      </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <f>A17+$D$1</f>
+      <c r="A18" s="11">
+        <f t="shared" si="0"/>
         <v>289920</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="15">
+        <v>-16</v>
+      </c>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
-        <f>A18+$D$1</f>
+      <c r="A19" s="11">
+        <f t="shared" si="0"/>
         <v>313680</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="15">
+        <v>-16.7</v>
+      </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <f>A19+$D$1</f>
+      <c r="A20" s="11">
+        <f t="shared" si="0"/>
         <v>337440</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="15">
+        <v>-17.2</v>
+      </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
-        <f>A20+$D$1</f>
+      <c r="A21" s="11">
+        <f t="shared" si="0"/>
         <v>361200</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="15">
+        <v>-17.8</v>
+      </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
-        <f>A21+$D$1</f>
+      <c r="A22" s="11">
+        <f t="shared" si="0"/>
         <v>384960</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="15">
+        <v>-18.3</v>
+      </c>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
-        <f>A22+$D$1</f>
+      <c r="A23" s="11">
+        <f t="shared" si="0"/>
         <v>408720</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="15">
+        <v>-18.7</v>
+      </c>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <f>A23+$D$1</f>
+      <c r="A24" s="11">
+        <f t="shared" si="0"/>
         <v>432480</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="15">
+        <v>-19.3</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
-        <f>A24+$D$1</f>
+      <c r="A25" s="11">
+        <f t="shared" si="0"/>
         <v>456240</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="15">
+        <v>-19.600000000000001</v>
+      </c>
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
-        <f>A25+$D$1</f>
+      <c r="A26" s="11">
+        <f t="shared" si="0"/>
         <v>480000</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="15">
+        <v>-20</v>
+      </c>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="19">
+        <v>4800000</v>
+      </c>
+      <c r="B27" s="15">
+        <v>-30</v>
+      </c>
       <c r="C27" s="5"/>
-      <c r="I27" s="8"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/TP1/Punto 2/Mediciones.xlsx
+++ b/TP1/Punto 2/Mediciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\source\repos\TC\TP1\Punto 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guido\Documents\GitHub\TC\TP1\Punto 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACDE4C0-8E8E-4B6D-AE98-31D3A1FD01D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1D6F33-272B-4D2F-B5F0-FD15652C12C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{555DA7CC-7A38-4795-B3ED-2A85C07D66EC}"/>
+    <workbookView xWindow="13695" yWindow="1650" windowWidth="15105" windowHeight="10590" xr2:uid="{555DA7CC-7A38-4795-B3ED-2A85C07D66EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 2" sheetId="3" r:id="rId1"/>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>f [Hz]</t>
   </si>
   <si>
     <t>H(s) (db)</t>
+  </si>
+  <si>
+    <t>Fase</t>
   </si>
 </sst>
 </file>
@@ -145,12 +148,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -167,6 +164,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -189,7 +192,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -226,7 +229,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -607,6 +610,9 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="31"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -662,7 +668,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="428886520"/>
@@ -721,7 +727,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="428881600"/>
@@ -763,7 +769,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -800,7 +806,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1396,7 +1402,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1694,21 +1700,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02DA3D6-5C1D-45A4-8102-49FE77036945}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="10"/>
@@ -1719,16 +1725,18 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1000</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>-0.1</v>
       </c>
       <c r="C3" s="5"/>
@@ -1738,7 +1746,7 @@
       <c r="A4" s="11">
         <v>2000</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>-0.1</v>
       </c>
       <c r="C4" s="5"/>
@@ -1749,7 +1757,7 @@
         <f>4.8*1000</f>
         <v>4800</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>-0.1</v>
       </c>
       <c r="G5" s="4"/>
@@ -1759,7 +1767,7 @@
         <f>A5+$D$1</f>
         <v>28560</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>-1.8</v>
       </c>
       <c r="G6" s="5"/>
@@ -1768,7 +1776,7 @@
       <c r="A7" s="11">
         <v>48000</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>-3.8</v>
       </c>
       <c r="G7" s="5"/>
@@ -1778,7 +1786,7 @@
         <f>A6+$D$1</f>
         <v>52320</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>-4.5</v>
       </c>
       <c r="G8" s="5"/>
@@ -1788,7 +1796,7 @@
         <f t="shared" ref="A9:A26" si="0">A8+$D$1</f>
         <v>76080</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>-6.4</v>
       </c>
       <c r="G9" s="5"/>
@@ -1798,7 +1806,7 @@
         <f t="shared" si="0"/>
         <v>99840</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>-8.1999999999999993</v>
       </c>
       <c r="G10" s="5"/>
@@ -1808,7 +1816,7 @@
         <f t="shared" si="0"/>
         <v>123600</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <v>-9.6</v>
       </c>
       <c r="G11" s="5"/>
@@ -1818,7 +1826,7 @@
         <f t="shared" si="0"/>
         <v>147360</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <v>-10.9</v>
       </c>
       <c r="G12" s="5"/>
@@ -1828,7 +1836,7 @@
         <f t="shared" si="0"/>
         <v>171120</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="13">
         <v>-12</v>
       </c>
       <c r="G13" s="5"/>
@@ -1838,7 +1846,7 @@
         <f t="shared" si="0"/>
         <v>194880</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <v>-12.9</v>
       </c>
       <c r="G14" s="5"/>
@@ -1848,7 +1856,7 @@
         <f t="shared" si="0"/>
         <v>218640</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="13">
         <v>-13.8</v>
       </c>
       <c r="G15" s="5"/>
@@ -1858,7 +1866,7 @@
         <f t="shared" si="0"/>
         <v>242400</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="13">
         <v>-14.6</v>
       </c>
       <c r="G16" s="5"/>
@@ -1868,7 +1876,7 @@
         <f t="shared" si="0"/>
         <v>266160</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <v>-15.4</v>
       </c>
       <c r="G17" s="5"/>
@@ -1878,7 +1886,7 @@
         <f t="shared" si="0"/>
         <v>289920</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <v>-16</v>
       </c>
       <c r="G18" s="5"/>
@@ -1888,7 +1896,7 @@
         <f t="shared" si="0"/>
         <v>313680</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="13">
         <v>-16.7</v>
       </c>
       <c r="G19" s="5"/>
@@ -1898,7 +1906,7 @@
         <f t="shared" si="0"/>
         <v>337440</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="13">
         <v>-17.2</v>
       </c>
       <c r="G20" s="5"/>
@@ -1908,7 +1916,7 @@
         <f t="shared" si="0"/>
         <v>361200</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="13">
         <v>-17.8</v>
       </c>
       <c r="G21" s="5"/>
@@ -1918,7 +1926,7 @@
         <f t="shared" si="0"/>
         <v>384960</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="13">
         <v>-18.3</v>
       </c>
       <c r="G22" s="5"/>
@@ -1928,7 +1936,7 @@
         <f t="shared" si="0"/>
         <v>408720</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="13">
         <v>-18.7</v>
       </c>
       <c r="G23" s="5"/>
@@ -1938,7 +1946,7 @@
         <f t="shared" si="0"/>
         <v>432480</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="13">
         <v>-19.3</v>
       </c>
     </row>
@@ -1947,7 +1955,7 @@
         <f t="shared" si="0"/>
         <v>456240</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="13">
         <v>-19.600000000000001</v>
       </c>
       <c r="C25" s="5"/>
@@ -1957,44 +1965,44 @@
         <f t="shared" si="0"/>
         <v>480000</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="13">
         <v>-20</v>
       </c>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+      <c r="A27" s="17">
         <v>4800000</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="13">
         <v>-30</v>
       </c>
       <c r="C27" s="5"/>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
